--- a/docs/inst_list_index.xlsx
+++ b/docs/inst_list_index.xlsx
@@ -593,13 +593,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +615,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -941,16 +941,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
@@ -967,36 +967,36 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="10" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="5" t="s">
         <v>104</v>
       </c>
@@ -1070,21 +1070,21 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1158,19 +1158,19 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1191,21 +1191,21 @@
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1226,21 +1226,21 @@
       <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1261,28 +1261,28 @@
       <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
       <c r="P10" s="2">
         <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1305,21 +1305,21 @@
       <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="7" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="2">
         <v>1</v>
       </c>
@@ -1349,21 +1349,21 @@
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="2">
         <v>1</v>
       </c>
@@ -1393,25 +1393,25 @@
       <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="7" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1432,21 +1432,21 @@
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1467,21 +1467,21 @@
       <c r="F15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1502,21 +1502,21 @@
       <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="5" t="s">
         <v>108</v>
       </c>
@@ -1549,16 +1549,16 @@
       <c r="I17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -1588,16 +1588,16 @@
       <c r="I18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1627,16 +1627,16 @@
       <c r="I19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1666,16 +1666,16 @@
       <c r="I20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1705,11 +1705,11 @@
       <c r="I21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="2">
         <v>0</v>
       </c>
@@ -1745,21 +1745,21 @@
       <c r="F22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="7" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
       <c r="R22" s="5" t="s">
         <v>106</v>
       </c>
@@ -1783,21 +1783,21 @@
       <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="7" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -1818,16 +1818,16 @@
       <c r="F24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="7" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="2">
         <v>0</v>
       </c>
@@ -1863,21 +1863,21 @@
       <c r="F25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="7" t="s">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -1898,23 +1898,23 @@
       <c r="F26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7" t="s">
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7" t="s">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
@@ -1935,21 +1935,21 @@
       <c r="F27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="7" t="s">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1970,23 +1970,23 @@
       <c r="F28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="7" t="s">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7" t="s">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -2007,21 +2007,21 @@
       <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="7" t="s">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7" t="s">
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="2">
         <v>0</v>
       </c>
@@ -2048,21 +2048,21 @@
       <c r="F30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="7" t="s">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7" t="s">
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="2">
         <v>1</v>
       </c>
@@ -2089,11 +2089,11 @@
       <c r="F31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="2">
         <v>0</v>
       </c>
@@ -2191,11 +2191,11 @@
       <c r="F33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="2">
         <v>0</v>
       </c>
@@ -2240,11 +2240,11 @@
       <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="2">
         <v>1</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="Q34" s="2">
         <v>0</v>
       </c>
-      <c r="R34" s="9"/>
+      <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
@@ -2290,16 +2290,16 @@
       <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7" t="s">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
       <c r="M35" s="2">
         <v>0</v>
       </c>
@@ -2335,16 +2335,16 @@
       <c r="F36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="7" t="s">
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
       <c r="M36" s="2">
         <v>0</v>
       </c>
@@ -2380,16 +2380,16 @@
       <c r="F37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="7" t="s">
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
       <c r="M37" s="2">
         <v>0</v>
       </c>
@@ -2425,16 +2425,16 @@
       <c r="F38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="7" t="s">
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
       <c r="M38" s="2">
         <v>0</v>
       </c>
@@ -2473,16 +2473,16 @@
       <c r="F39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="7" t="s">
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
       <c r="M39" s="2">
         <v>0</v>
       </c>
@@ -2521,16 +2521,16 @@
       <c r="F40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="7" t="s">
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
       <c r="M40" s="2">
         <v>0</v>
       </c>
@@ -2566,16 +2566,16 @@
       <c r="F41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="7" t="s">
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
       <c r="M41" s="2">
         <v>0</v>
       </c>
@@ -2611,16 +2611,16 @@
       <c r="F42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="7" t="s">
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
       <c r="M42" s="2">
         <v>0</v>
       </c>
@@ -2656,16 +2656,16 @@
       <c r="F43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="7" t="s">
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
       <c r="M43" s="2">
         <v>0</v>
       </c>
@@ -2701,16 +2701,16 @@
       <c r="F44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="7" t="s">
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
       <c r="M44" s="2">
         <v>0</v>
       </c>
@@ -2746,16 +2746,16 @@
       <c r="F45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="7" t="s">
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
       <c r="M45" s="2">
         <v>0</v>
       </c>
@@ -2791,11 +2791,11 @@
       <c r="F46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="2">
         <v>0</v>
       </c>
@@ -2840,11 +2840,11 @@
       <c r="F47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="2">
         <v>0</v>
       </c>
@@ -2910,12 +2910,12 @@
       <c r="M48" s="2">
         <v>0</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="N48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
       <c r="R48" s="5" t="s">
         <v>105</v>
       </c>
@@ -2927,34 +2927,45 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G7:Q7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="N13:Q13"/>
     <mergeCell ref="G42:I42"/>
@@ -2966,53 +2977,42 @@
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:Q14"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G7:Q7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
